--- a/reuniões/dailys/Dailys_Outubro/Daily_14_10.xlsx
+++ b/reuniões/dailys/Dailys_Outubro/Daily_14_10.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12531B81-0AAE-4D29-82A6-2EBE0643C057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4ACDE5-629F-954A-A2A7-16CF7D465658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda de reunião" sheetId="1" r:id="rId1"/>
@@ -158,13 +158,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -653,10 +653,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -871,24 +871,6 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEFD5EC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -910,25 +892,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="h:mm;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEFD5EC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -957,22 +920,27 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
         <name val="Poppins"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="h:mm;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFEFD5EC"/>
+          <bgColor rgb="FF922A74"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1008,6 +976,24 @@
         <name val="Poppins"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFD5EC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="166" formatCode="h:mm;@"/>
       <fill>
         <patternFill patternType="solid">
@@ -1019,27 +1005,41 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
         <name val="Poppins"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="h:mm;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF922A74"/>
+          <bgColor rgb="FFEFD5EC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="h:mm;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFD5EC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1103,24 +1103,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEFD5EC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1159,7 +1141,7 @@
           <bgColor rgb="FFEFD5EC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1184,6 +1166,24 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFD5EC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1393,8 +1393,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDaReunião" displayName="DadosDaReunião" ref="B8:C18" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
   <autoFilter ref="B8:C17" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="13" totalsRowDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="11" totalsRowDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1409,14 +1409,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}" name="DadosDaReunião2" displayName="DadosDaReunião2" ref="B21:E33" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B21:E32" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IF(ISBLANK(C21),"",C21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="6" totalsRowDxfId="2" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IFERROR(IF(ISBLANK(#REF!),"",B22+#REF!), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Hora"/>
-    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Hora"/>
+    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1661,27 +1661,27 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="30" customHeight="1">
+    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="60" customHeight="1">
+    <row r="2" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1">
+    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1">
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1">
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1">
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="E6" s="19"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1">
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1">
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="37.5">
+    <row r="9" spans="2:9" ht="34" x14ac:dyDescent="0.15">
       <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="21.75">
+    <row r="10" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="21.75">
+    <row r="11" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="21.75">
+    <row r="12" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B12" s="25" t="s">
         <v>16</v>
       </c>
@@ -1776,41 +1776,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="21.75">
+    <row r="13" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B13" s="25"/>
       <c r="C13" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="21.75">
+    <row r="14" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="21.75">
+    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.15">
       <c r="B15" s="25"/>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="2:9" ht="21.75">
+    <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.15">
       <c r="B16" s="25"/>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="2:5" ht="21.75">
+    <row r="17" spans="2:5" ht="16" x14ac:dyDescent="0.15">
       <c r="B17" s="25"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="2:5" ht="23.25">
+    <row r="18" spans="2:5" ht="19" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="27" t="s">
         <v>25</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="37.5">
+    <row r="23" spans="2:5" ht="34" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
         <v>28</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="27" t="s">
         <v>29</v>
       </c>
@@ -1874,12 +1874,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="21.75">
+    <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="23">
-        <v>45575</v>
+        <v>45583</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>32</v>
@@ -1888,7 +1888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="21.75">
+    <row r="26" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>33</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1">
+    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>35</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1">
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>36</v>
       </c>
@@ -1930,25 +1930,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1">
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
     </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1">
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
     </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1">
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
     </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1">
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27"/>
       <c r="C32" s="27" t="str">
         <f>IFERROR(IF(ISBLANK(D32),"",B32+D32), "")</f>
@@ -1957,7 +1957,7 @@
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
     </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1">
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -1998,6 +1998,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa0996e3a60c29644e9f2cf3d3cad0da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61aa44093c7789ab6990bc79f23b9731" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -2153,33 +2170,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6249D248-E7D3-408E-8CE5-50FC0655C604}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57C8022-9D6B-4416-AED0-B410FD575972}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57C8022-9D6B-4416-AED0-B410FD575972}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6249D248-E7D3-408E-8CE5-50FC0655C604}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
